--- a/biology/Botanique/Parc_départemental_de_la_Bergère/Parc_départemental_de_la_Bergère.xlsx
+++ b/biology/Botanique/Parc_départemental_de_la_Bergère/Parc_départemental_de_la_Bergère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
+          <t>Parc_départemental_de_la_Bergère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Bergère est un espace vert public de 15 hectares situé dans la commune de Bobigny, bordé par le canal de l'Ourcq.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
+          <t>Parc_départemental_de_la_Bergère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de la Bergère est aménagé de 1981 à 1990[1]. Il est accessible par le chemin latéral de l'avenue Paul-Vaillant-Couturier à Bobigny[2].
-Il attire annuellement près de 500.000 visiteurs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de la Bergère est aménagé de 1981 à 1990. Il est accessible par le chemin latéral de l'avenue Paul-Vaillant-Couturier à Bobigny.
+Il attire annuellement près de 500.000 visiteurs.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
+          <t>Parc_départemental_de_la_Bergère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2025 seront implantés une zone de baignade de 4500m 2 près de la Maison du Parc, et un espace multisport sur la dalle Sipperec[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2025 seront implantés une zone de baignade de 4500m 2 près de la Maison du Parc, et un espace multisport sur la dalle Sipperec.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
+          <t>Parc_départemental_de_la_Bergère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,13 +588,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La faune
-La flore</t>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a été réaménagé en 2021, de nouvelles entrées ont été créées, l'ancienne cité administrative détruite et remplacées par des pelouses.
+</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
+          <t>Parc_départemental_de_la_Bergère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,41 +621,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a été réaménagé en 2021, de nouvelles entrées ont été créées, l'ancienne cité administrative détruite et remplacées par des pelouses[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_d%C3%A9partemental_de_la_Berg%C3%A8re</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est accessible par la station de métro Bobigny - Pablo Picasso sur la ligne 5 du métro de Paris. La passerelle Pierre-Simon-Girard permet d'atteindre la rue de Paris à Pantin.
 </t>
